--- a/Planung/Feinplanung_Ostern_2016.xlsx
+++ b/Planung/Feinplanung_Ostern_2016.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,126 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>4AHIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melih Matus, Chen Wang, Jinyang Xiang </t>
+  </si>
+  <si>
+    <t>Grow It!</t>
+  </si>
+  <si>
+    <t>Feinplanung Ostern</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Hauptverantwortlicher</t>
+  </si>
+  <si>
+    <t>Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Plan-Start</t>
+  </si>
+  <si>
+    <t>Plan-Ende</t>
+  </si>
+  <si>
+    <t>Plan-Stunden</t>
+  </si>
+  <si>
+    <t>Ist-Start</t>
+  </si>
+  <si>
+    <t>Ist-Ende</t>
+  </si>
+  <si>
+    <t>Ist-Stunden</t>
+  </si>
+  <si>
+    <t>Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Prototyp</t>
+  </si>
+  <si>
+    <t>Kapitel 4</t>
+  </si>
+  <si>
+    <t>Kapitel 5</t>
+  </si>
+  <si>
+    <t>Kapitel 6</t>
+  </si>
+  <si>
+    <t>Kapitel 7</t>
+  </si>
+  <si>
+    <t>Hauptmenü</t>
+  </si>
+  <si>
+    <t>Spieloberfläche</t>
+  </si>
+  <si>
+    <t>Optionen</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -40,25 +151,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,9 +287,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +359,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,13 +532,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="12">
+        <v>42424</v>
+      </c>
+      <c r="E14" s="12">
+        <v>42425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planung/Feinplanung_Ostern_2016.xlsx
+++ b/Planung/Feinplanung_Ostern_2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -247,9 +247,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -287,7 +287,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -359,7 +359,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,18 +536,18 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -558,12 +558,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -592,37 +592,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -632,15 +632,39 @@
       <c r="E14" s="12">
         <v>42425</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="12">
+        <v>42425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="12">
+        <v>42430</v>
+      </c>
+      <c r="E15" s="12">
+        <v>42433</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="D16" s="12">
+        <v>42437</v>
+      </c>
+      <c r="E16" s="12">
+        <v>42440</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Feinplanung_Ostern_2016.xlsx
+++ b/Planung/Feinplanung_Ostern_2016.xlsx
@@ -19,9 +19,6 @@
     <t>4AHIF</t>
   </si>
   <si>
-    <t xml:space="preserve">Melih Matus, Chen Wang, Jinyang Xiang </t>
-  </si>
-  <si>
     <t>Grow It!</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Pflichtenheft</t>
   </si>
   <si>
-    <t>Prototyp</t>
-  </si>
-  <si>
     <t>Kapitel 4</t>
   </si>
   <si>
@@ -80,6 +74,12 @@
   </si>
   <si>
     <t>Optionen</t>
+  </si>
+  <si>
+    <t>Prototyp (Android Game Studio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Juhasz, Melih Matus, Chen Wang, Jinyang Xiang </t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -228,7 +228,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,138 +544,197 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
     <col min="4" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D8" s="13">
+        <v>42430</v>
+      </c>
+      <c r="E8" s="13">
+        <v>42432</v>
+      </c>
+      <c r="F8" s="14">
+        <v>4</v>
+      </c>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D9" s="13">
+        <v>42433</v>
+      </c>
+      <c r="E9" s="13">
+        <v>42437</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D10" s="13">
+        <v>42438</v>
+      </c>
+      <c r="E10" s="13">
+        <v>42439</v>
+      </c>
+      <c r="F10" s="14">
+        <v>3</v>
+      </c>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D11" s="13">
+        <v>42444</v>
+      </c>
+      <c r="E11" s="13">
+        <v>42446</v>
+      </c>
+      <c r="F11" s="14">
+        <v>3</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>14</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="12">
+        <v>17</v>
+      </c>
+      <c r="D14" s="13">
         <v>42424</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="13">
         <v>42425</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="14">
         <v>3</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>42425</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="12">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13">
         <v>42430</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="13">
         <v>42433</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="14">
         <v>5</v>
       </c>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="12">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13">
         <v>42437</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="13">
         <v>42440</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="14">
         <v>4</v>
       </c>
+      <c r="G16" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
